--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,16 +147,28 @@
     <t>Missing - Restricted access</t>
   </si>
   <si>
+    <t>Missing - Restricted Access</t>
+  </si>
+  <si>
     <t>Missing - Not provided</t>
   </si>
   <si>
+    <t>Missing - Not Provided</t>
+  </si>
+  <si>
     <t>Missing - Not collected</t>
   </si>
   <si>
+    <t>Missing - Not Collected</t>
+  </si>
+  <si>
     <t>Missing - Unknown</t>
   </si>
   <si>
     <t>Prefer not to answer</t>
+  </si>
+  <si>
+    <t>Prefer not to Answer</t>
   </si>
   <si>
     <t>Do not know</t>
@@ -536,7 +548,7 @@
         <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -545,10 +557,10 @@
         <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -557,10 +569,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -569,10 +581,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -581,10 +593,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -593,10 +605,10 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -605,10 +617,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -617,10 +629,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -629,10 +641,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -641,10 +653,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -653,10 +665,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -665,10 +677,10 @@
         <v>41</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -677,10 +689,10 @@
         <v>41</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -689,10 +701,10 @@
         <v>41</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2"/>
     </row>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Race</t>
+    <t>RaceCodeSystem</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Do not know</t>
+  </si>
+  <si>
+    <t>Do not Know</t>
   </si>
   <si>
     <t>Another Racial Category</t>
@@ -608,7 +611,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -617,10 +620,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -629,10 +632,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -641,10 +644,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -653,10 +656,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -665,10 +668,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -677,10 +680,10 @@
         <v>41</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -689,10 +692,10 @@
         <v>41</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -701,10 +704,10 @@
         <v>41</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2"/>
     </row>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-race.xlsx
+++ b/docs/CodeSystem-qc-race.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Do not know</t>
-  </si>
-  <si>
-    <t>Do not Know</t>
   </si>
   <si>
     <t>Another Racial Category</t>
@@ -611,7 +608,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -620,10 +617,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -632,10 +629,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -644,10 +641,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -656,10 +653,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -668,10 +665,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -680,10 +677,10 @@
         <v>41</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -692,10 +689,10 @@
         <v>41</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -704,10 +701,10 @@
         <v>41</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2"/>
     </row>
